--- a/biology/Botanique/Anita_Pereire/Anita_Pereire.xlsx
+++ b/biology/Botanique/Anita_Pereire/Anita_Pereire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anita Pereire, née le 22 octobre 1916 à Londres et morte le 3 juillet 2019 à Hartsdale (New York), est une paysagiste et femme de lettres française.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la sœur de Derek Kartun (1919-2005), la nièce de Léon Kartun (1895-1982) et la cousine de Leon Garfield.
 En 1937, elle épouse l'homme d'affaires François Pereire, petit-fils de Gustave Pereire et neveu d'Alfred Pereire.
-Elle meurt le 3 juillet 2019 à Hartsdale (New York)[1].
+Elle meurt le 3 juillet 2019 à Hartsdale (New York).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Antichambre, roman (1961)
 La Femme en miettes, roman (1975)
